--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nuke_\OneDrive\Documenten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stijn\OneDrive\Documenten\UCLL\Year3\Sem2\Afstudeerproject\Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1F2AFE2-DAC6-45F9-9027-FAE0DA4A63C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE7A023-F9FC-4A3F-B286-51C8DE7FD621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9E3DBB32-889F-48E7-9504-697635335C78}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{9E3DBB32-889F-48E7-9504-697635335C78}"/>
   </bookViews>
   <sheets>
     <sheet name="RelationContacts" sheetId="1" r:id="rId1"/>
@@ -2045,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCDA93F-9C72-497D-B433-11FF3A9D3127}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5119,7 +5119,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B21:B22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5584,7 +5584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1845C363-BB07-48E7-A8BE-B90C294EA004}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
